--- a/biology/Histoire de la zoologie et de la botanique/Walter_Robyns/Walter_Robyns.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Walter_Robyns/Walter_Robyns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frans Hubert Edouard Arthur Walter Robyns dit Walter Robyns (1901-1986), est un botaniste et universitaire belge. Il dirige le Jardin botanique national de Belgique de 1931 à 1966 et est professeur de botanique à l'université catholique de Louvain de 1928 à 1966.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walter Robyns naît en 1901 à Mielen-sur-Alost, fils de Désiré Robyns et d'Hortense Tits[1]. Il est élève au petit séminaire de Saint-Trond, puis poursuit ses études en 1919 à l'université de Louvain, où il obtient son doctorat en sciences en 1923[2]. Il fait un premier séjour d'étude aux Jardins botaniques royaux de Kew en 1923[1]. Il candidate à un poste d'assistant au Jardin botanique national de Belgique en novembre 1923 et prend ses fonctions en 1926 après avoir effectué son service militaire, un second stage de six mois à Kew, et une mission botanique au Congo[1]. Il se marie en 1927 avec Hélène Minten, le couple a trois enfants[1].
-Il est nommé chef du service des herbiers en 1926, fonction à laquelle il ajoute celle de chef du service des cultures en 1927, puis il devient conservateur en 1929. En 1931, il succède à Émile De Wildeman en tant que directeur du Jardin botanique national et gère le transfert de l'institut du site de Bruxelles au domaine de Bouchout, à Meise. Il prend sa retraite en 1966 et Fernand Demaret lui succède à cette fonction[1].
-Il enseigne la botanique à université de Louvain, nommé chargé de cours en 1926, puis professeur à partir de 1928. Il est professeur invité à l'université Lovanium de Kinshasa en 1957 et 1965[1] et président de l'Académie royale des sciences d'outre-mer en 1963.
-Il voyage en Afrique centrale et effectue des travaux taxonomiques sur plusieurs groupes de plantes tropicales africaines, notamment Rubiaceae, Poaceae et Fabaceae[3].
-Il est l'initiateur d'une série monographique sur la flore de l'Afrique centrale, Flore d'Afrique centrale . De 1959 à 1964, il est président de l'Association internationale de taxonomie des plantes[2]. Il est aussi co-auteur de plusieurs versions du Code international de nomenclature botanique (1952, 1956, 1961 et 1966)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walter Robyns naît en 1901 à Mielen-sur-Alost, fils de Désiré Robyns et d'Hortense Tits. Il est élève au petit séminaire de Saint-Trond, puis poursuit ses études en 1919 à l'université de Louvain, où il obtient son doctorat en sciences en 1923. Il fait un premier séjour d'étude aux Jardins botaniques royaux de Kew en 1923. Il candidate à un poste d'assistant au Jardin botanique national de Belgique en novembre 1923 et prend ses fonctions en 1926 après avoir effectué son service militaire, un second stage de six mois à Kew, et une mission botanique au Congo. Il se marie en 1927 avec Hélène Minten, le couple a trois enfants.
+Il est nommé chef du service des herbiers en 1926, fonction à laquelle il ajoute celle de chef du service des cultures en 1927, puis il devient conservateur en 1929. En 1931, il succède à Émile De Wildeman en tant que directeur du Jardin botanique national et gère le transfert de l'institut du site de Bruxelles au domaine de Bouchout, à Meise. Il prend sa retraite en 1966 et Fernand Demaret lui succède à cette fonction.
+Il enseigne la botanique à université de Louvain, nommé chargé de cours en 1926, puis professeur à partir de 1928. Il est professeur invité à l'université Lovanium de Kinshasa en 1957 et 1965 et président de l'Académie royale des sciences d'outre-mer en 1963.
+Il voyage en Afrique centrale et effectue des travaux taxonomiques sur plusieurs groupes de plantes tropicales africaines, notamment Rubiaceae, Poaceae et Fabaceae.
+Il est l'initiateur d'une série monographique sur la flore de l'Afrique centrale, Flore d'Afrique centrale . De 1959 à 1964, il est président de l'Association internationale de taxonomie des plantes. Il est aussi co-auteur de plusieurs versions du Code international de nomenclature botanique (1952, 1956, 1961 et 1966).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flore agrostologique du Congo Belge et du Ruanda-Urundi, Bruxelles : Goemaere, 1929-1934.
 Flore des spermatophytes du Parc national Albert (avec Roland Tournay) Bruxelles : Institut des parcs nationaux du Congo belge, 1947-1955.
@@ -579,12 +595,14 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Robynsia, famille des Rubiacées, nom introduit par John Hutchinson (1931).
 Robynsiella, famille des Amaranthacées, nom introduit par Karl Suessenguth (1938).
 Robynsiochloa, famille des Poacées, nom introduit par Henri Jacques-Félix (1960).
-Robynsiophyton, famille des Fabacées, nom introduit par Rudolf Wilczek (1953)[2].</t>
+Robynsiophyton, famille des Fabacées, nom introduit par Rudolf Wilczek (1953).</t>
         </is>
       </c>
     </row>
